--- a/spreadsheet/Grass_data_weekly_2009-2024.xlsx
+++ b/spreadsheet/Grass_data_weekly_2009-2024.xlsx
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2951,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>30.91777619836039</v>
+        <v>6.854528968943185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2979,7 +2979,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>31.37669998250232</v>
+        <v>7.03368572754606</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2993,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>31.83562376664426</v>
+        <v>7.518983528026097</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3007,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>32.29454755078619</v>
+        <v>8.425623627772788</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3021,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>32.75347133492812</v>
+        <v>9.526346614371672</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3035,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>33.21239511907006</v>
+        <v>9.975172679529194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3049,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>33.67131890321199</v>
+        <v>11.18521807835811</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3063,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>34.13024268735393</v>
+        <v>14.22902793459837</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3077,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>34.58916647149586</v>
+        <v>17.3452111256389</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3091,7 +3091,7 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>35.0480902556378</v>
+        <v>22.38573995940518</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>35.50701403977973</v>
+        <v>28.23852898690002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3119,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>35.96593782392166</v>
+        <v>34.8954568648472</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3133,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>36.42486160806359</v>
+        <v>45.56737149155249</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3147,7 +3147,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>36.88378539220552</v>
+        <v>52.46121389833615</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3161,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>37.34270917634746</v>
+        <v>57.03478496451859</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3175,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>37.80163296048939</v>
+        <v>62.58059496111045</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3189,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>38.26055674463133</v>
+        <v>71.69760535869358</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3203,7 +3203,7 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>38.71948052877326</v>
+        <v>73.97904219335875</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3217,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>39.17840431291519</v>
+        <v>76.1336195197991</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3231,7 +3231,7 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>39.63732809705713</v>
+        <v>69.5451984688922</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3245,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="D25">
-        <v>40.09625188119907</v>
+        <v>65.48814501434239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3259,7 +3259,7 @@
         <v>28</v>
       </c>
       <c r="D26">
-        <v>40.555175665341</v>
+        <v>66.4225272500118</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3273,7 +3273,7 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>41.01409944948293</v>
+        <v>64.03620840335277</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3287,7 +3287,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>41.47302323362486</v>
+        <v>61.85817823188949</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3301,7 +3301,7 @@
         <v>31</v>
       </c>
       <c r="D29">
-        <v>41.9319470177668</v>
+        <v>60.44814623697598</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3315,7 +3315,7 @@
         <v>32</v>
       </c>
       <c r="D30">
-        <v>42.39087080190873</v>
+        <v>58.91129319455056</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3329,7 +3329,7 @@
         <v>33</v>
       </c>
       <c r="D31">
-        <v>42.84979458605066</v>
+        <v>59.81015942309325</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3343,7 +3343,7 @@
         <v>34</v>
       </c>
       <c r="D32">
-        <v>43.30871837019259</v>
+        <v>60.67431865726294</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3357,7 +3357,7 @@
         <v>35</v>
       </c>
       <c r="D33">
-        <v>43.76764215433453</v>
+        <v>61.54400339993682</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3371,7 +3371,7 @@
         <v>36</v>
       </c>
       <c r="D34">
-        <v>44.22656593847647</v>
+        <v>62.37901063599286</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3385,7 +3385,7 @@
         <v>37</v>
       </c>
       <c r="D35">
-        <v>44.6854897226184</v>
+        <v>59.73418161014251</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3399,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="D36">
-        <v>45.14441350676033</v>
+        <v>57.10532002513312</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3413,7 +3413,7 @@
         <v>39</v>
       </c>
       <c r="D37">
-        <v>45.60333729090227</v>
+        <v>55.53225712257375</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3427,7 +3427,7 @@
         <v>40</v>
       </c>
       <c r="D38">
-        <v>46.0622610750442</v>
+        <v>55.1710781636664</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3441,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="D39">
-        <v>46.52118485918614</v>
+        <v>54.59128132978131</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3455,7 +3455,7 @@
         <v>42</v>
       </c>
       <c r="D40">
-        <v>46.98010864332807</v>
+        <v>50.76911314141653</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3469,7 +3469,7 @@
         <v>43</v>
       </c>
       <c r="D41">
-        <v>47.43903242747</v>
+        <v>45.30115145136081</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3483,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="D42">
-        <v>47.89795621161193</v>
+        <v>38.79716532615989</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>45</v>
       </c>
       <c r="D43">
-        <v>48.35687999575387</v>
+        <v>32.73673971861474</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3511,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="D44">
-        <v>48.8158037798958</v>
+        <v>27.5380258863943</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3525,7 +3525,7 @@
         <v>47</v>
       </c>
       <c r="D45">
-        <v>49.27472756403773</v>
+        <v>22.23751373218285</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3539,7 +3539,7 @@
         <v>48</v>
       </c>
       <c r="D46">
-        <v>49.73365134817966</v>
+        <v>18.89257931108279</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3553,7 +3553,7 @@
         <v>49</v>
       </c>
       <c r="D47">
-        <v>50.1925751323216</v>
+        <v>14.67726116105257</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3567,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="D48">
-        <v>50.65149891646354</v>
+        <v>11.80931891100816</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3581,7 +3581,7 @@
         <v>51</v>
       </c>
       <c r="D49">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3595,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="D50">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3609,7 +3609,7 @@
         <v>53</v>
       </c>
       <c r="D51">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3623,7 +3623,7 @@
         <v>54</v>
       </c>
       <c r="D52">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3637,7 +3637,7 @@
         <v>55</v>
       </c>
       <c r="D53">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3651,7 +3651,7 @@
         <v>56</v>
       </c>
       <c r="D54">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3665,7 +3665,7 @@
         <v>57</v>
       </c>
       <c r="D55">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3679,7 +3679,7 @@
         <v>58</v>
       </c>
       <c r="D56">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3693,7 +3693,7 @@
         <v>59</v>
       </c>
       <c r="D57">
-        <v>30.91777619836039</v>
+        <v>6.854528968943185</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3707,7 +3707,7 @@
         <v>60</v>
       </c>
       <c r="D58">
-        <v>31.37669998250232</v>
+        <v>7.03368572754606</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3721,7 +3721,7 @@
         <v>61</v>
       </c>
       <c r="D59">
-        <v>31.83562376664426</v>
+        <v>7.518983528026097</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3735,7 +3735,7 @@
         <v>62</v>
       </c>
       <c r="D60">
-        <v>32.29454755078619</v>
+        <v>8.425623627772788</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3749,7 +3749,7 @@
         <v>63</v>
       </c>
       <c r="D61">
-        <v>32.75347133492812</v>
+        <v>9.526346614371672</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3763,7 +3763,7 @@
         <v>64</v>
       </c>
       <c r="D62">
-        <v>33.21239511907006</v>
+        <v>9.975172679529194</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3777,7 +3777,7 @@
         <v>65</v>
       </c>
       <c r="D63">
-        <v>33.67131890321199</v>
+        <v>11.18521807835811</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3791,7 +3791,7 @@
         <v>66</v>
       </c>
       <c r="D64">
-        <v>34.13024268735393</v>
+        <v>14.22902793459837</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3805,7 +3805,7 @@
         <v>67</v>
       </c>
       <c r="D65">
-        <v>34.58916647149586</v>
+        <v>17.3452111256389</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3819,7 +3819,7 @@
         <v>68</v>
       </c>
       <c r="D66">
-        <v>35.0480902556378</v>
+        <v>22.38573995940518</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3833,7 +3833,7 @@
         <v>69</v>
       </c>
       <c r="D67">
-        <v>35.50701403977973</v>
+        <v>28.23852898690002</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3847,7 +3847,7 @@
         <v>70</v>
       </c>
       <c r="D68">
-        <v>35.96593782392166</v>
+        <v>34.8954568648472</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3861,7 +3861,7 @@
         <v>71</v>
       </c>
       <c r="D69">
-        <v>36.42486160806359</v>
+        <v>45.56737149155249</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3875,7 +3875,7 @@
         <v>72</v>
       </c>
       <c r="D70">
-        <v>36.88378539220552</v>
+        <v>52.46121389833615</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3889,7 +3889,7 @@
         <v>73</v>
       </c>
       <c r="D71">
-        <v>37.34270917634746</v>
+        <v>57.03478496451859</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3903,7 +3903,7 @@
         <v>74</v>
       </c>
       <c r="D72">
-        <v>37.80163296048939</v>
+        <v>62.58059496111045</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3917,7 +3917,7 @@
         <v>75</v>
       </c>
       <c r="D73">
-        <v>38.26055674463133</v>
+        <v>71.69760535869358</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3931,7 +3931,7 @@
         <v>76</v>
       </c>
       <c r="D74">
-        <v>38.71948052877326</v>
+        <v>73.97904219335875</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3945,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="D75">
-        <v>39.17840431291519</v>
+        <v>76.1336195197991</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3959,7 +3959,7 @@
         <v>78</v>
       </c>
       <c r="D76">
-        <v>39.63732809705713</v>
+        <v>69.5451984688922</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3973,7 +3973,7 @@
         <v>79</v>
       </c>
       <c r="D77">
-        <v>40.09625188119907</v>
+        <v>65.48814501434239</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3987,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="D78">
-        <v>40.555175665341</v>
+        <v>66.4225272500118</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4001,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="D79">
-        <v>41.01409944948293</v>
+        <v>64.03620840335277</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4015,7 +4015,7 @@
         <v>82</v>
       </c>
       <c r="D80">
-        <v>41.47302323362486</v>
+        <v>61.85817823188949</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4029,7 +4029,7 @@
         <v>83</v>
       </c>
       <c r="D81">
-        <v>41.9319470177668</v>
+        <v>60.44814623697598</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4043,7 +4043,7 @@
         <v>84</v>
       </c>
       <c r="D82">
-        <v>42.39087080190873</v>
+        <v>58.91129319455056</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4057,7 +4057,7 @@
         <v>85</v>
       </c>
       <c r="D83">
-        <v>42.84979458605066</v>
+        <v>59.81015942309325</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4071,7 +4071,7 @@
         <v>86</v>
       </c>
       <c r="D84">
-        <v>43.30871837019259</v>
+        <v>60.67431865726294</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4085,7 +4085,7 @@
         <v>87</v>
       </c>
       <c r="D85">
-        <v>43.76764215433453</v>
+        <v>61.54400339993682</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4099,7 +4099,7 @@
         <v>88</v>
       </c>
       <c r="D86">
-        <v>44.22656593847647</v>
+        <v>62.37901063599286</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4113,7 +4113,7 @@
         <v>89</v>
       </c>
       <c r="D87">
-        <v>44.6854897226184</v>
+        <v>59.73418161014251</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4127,7 +4127,7 @@
         <v>90</v>
       </c>
       <c r="D88">
-        <v>45.14441350676033</v>
+        <v>57.10532002513312</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="D89">
-        <v>45.60333729090227</v>
+        <v>55.53225712257375</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4155,7 +4155,7 @@
         <v>92</v>
       </c>
       <c r="D90">
-        <v>46.0622610750442</v>
+        <v>55.1710781636664</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4169,7 +4169,7 @@
         <v>93</v>
       </c>
       <c r="D91">
-        <v>46.52118485918614</v>
+        <v>54.59128132978131</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4183,7 +4183,7 @@
         <v>94</v>
       </c>
       <c r="D92">
-        <v>46.98010864332807</v>
+        <v>50.76911314141653</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4197,7 +4197,7 @@
         <v>95</v>
       </c>
       <c r="D93">
-        <v>47.43903242747</v>
+        <v>45.30115145136081</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4211,7 +4211,7 @@
         <v>96</v>
       </c>
       <c r="D94">
-        <v>47.89795621161193</v>
+        <v>38.79716532615989</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4225,7 +4225,7 @@
         <v>97</v>
       </c>
       <c r="D95">
-        <v>48.35687999575387</v>
+        <v>32.73673971861474</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4239,7 +4239,7 @@
         <v>98</v>
       </c>
       <c r="D96">
-        <v>48.8158037798958</v>
+        <v>27.5380258863943</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4253,7 +4253,7 @@
         <v>99</v>
       </c>
       <c r="D97">
-        <v>49.27472756403773</v>
+        <v>22.23751373218285</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4267,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="D98">
-        <v>49.73365134817966</v>
+        <v>18.89257931108279</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4281,7 +4281,7 @@
         <v>101</v>
       </c>
       <c r="D99">
-        <v>50.1925751323216</v>
+        <v>14.67726116105257</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4295,7 +4295,7 @@
         <v>102</v>
       </c>
       <c r="D100">
-        <v>50.65149891646354</v>
+        <v>11.80931891100816</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4309,7 +4309,7 @@
         <v>103</v>
       </c>
       <c r="D101">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4323,7 +4323,7 @@
         <v>104</v>
       </c>
       <c r="D102">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4337,7 +4337,7 @@
         <v>105</v>
       </c>
       <c r="D103">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4351,7 +4351,7 @@
         <v>106</v>
       </c>
       <c r="D104">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4365,7 +4365,7 @@
         <v>107</v>
       </c>
       <c r="D105">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4379,7 +4379,7 @@
         <v>108</v>
       </c>
       <c r="D106">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4393,7 +4393,7 @@
         <v>109</v>
       </c>
       <c r="D107">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4407,7 +4407,7 @@
         <v>110</v>
       </c>
       <c r="D108">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4421,7 +4421,7 @@
         <v>111</v>
       </c>
       <c r="D109">
-        <v>30.91777619836039</v>
+        <v>6.854528968943185</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4435,7 +4435,7 @@
         <v>112</v>
       </c>
       <c r="D110">
-        <v>31.37669998250232</v>
+        <v>7.03368572754606</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4449,7 +4449,7 @@
         <v>113</v>
       </c>
       <c r="D111">
-        <v>31.83562376664426</v>
+        <v>7.518983528026097</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4463,7 +4463,7 @@
         <v>114</v>
       </c>
       <c r="D112">
-        <v>32.29454755078619</v>
+        <v>8.425623627772788</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4477,7 +4477,7 @@
         <v>115</v>
       </c>
       <c r="D113">
-        <v>32.75347133492812</v>
+        <v>9.526346614371672</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4491,7 +4491,7 @@
         <v>116</v>
       </c>
       <c r="D114">
-        <v>33.21239511907006</v>
+        <v>9.975172679529194</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4505,7 +4505,7 @@
         <v>117</v>
       </c>
       <c r="D115">
-        <v>33.67131890321199</v>
+        <v>11.18521807835811</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="D116">
-        <v>34.13024268735393</v>
+        <v>14.22902793459837</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4533,7 +4533,7 @@
         <v>119</v>
       </c>
       <c r="D117">
-        <v>34.58916647149586</v>
+        <v>17.3452111256389</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4547,7 +4547,7 @@
         <v>120</v>
       </c>
       <c r="D118">
-        <v>35.0480902556378</v>
+        <v>22.38573995940518</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4561,7 +4561,7 @@
         <v>121</v>
       </c>
       <c r="D119">
-        <v>35.50701403977973</v>
+        <v>28.23852898690002</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4575,7 +4575,7 @@
         <v>122</v>
       </c>
       <c r="D120">
-        <v>35.96593782392166</v>
+        <v>34.8954568648472</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4589,7 +4589,7 @@
         <v>123</v>
       </c>
       <c r="D121">
-        <v>36.42486160806359</v>
+        <v>45.56737149155249</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4603,7 +4603,7 @@
         <v>124</v>
       </c>
       <c r="D122">
-        <v>36.88378539220552</v>
+        <v>52.46121389833615</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4617,7 +4617,7 @@
         <v>125</v>
       </c>
       <c r="D123">
-        <v>37.34270917634746</v>
+        <v>57.03478496451859</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4631,7 +4631,7 @@
         <v>126</v>
       </c>
       <c r="D124">
-        <v>37.80163296048939</v>
+        <v>62.58059496111045</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4645,7 +4645,7 @@
         <v>127</v>
       </c>
       <c r="D125">
-        <v>38.26055674463133</v>
+        <v>71.69760535869358</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4659,7 +4659,7 @@
         <v>128</v>
       </c>
       <c r="D126">
-        <v>38.71948052877326</v>
+        <v>73.97904219335875</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4673,7 +4673,7 @@
         <v>129</v>
       </c>
       <c r="D127">
-        <v>39.17840431291519</v>
+        <v>76.1336195197991</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4687,7 +4687,7 @@
         <v>130</v>
       </c>
       <c r="D128">
-        <v>39.63732809705713</v>
+        <v>69.5451984688922</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4701,7 +4701,7 @@
         <v>131</v>
       </c>
       <c r="D129">
-        <v>40.09625188119907</v>
+        <v>65.48814501434239</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4715,7 +4715,7 @@
         <v>132</v>
       </c>
       <c r="D130">
-        <v>40.555175665341</v>
+        <v>66.4225272500118</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4729,7 +4729,7 @@
         <v>133</v>
       </c>
       <c r="D131">
-        <v>41.01409944948293</v>
+        <v>64.03620840335277</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4743,7 +4743,7 @@
         <v>134</v>
       </c>
       <c r="D132">
-        <v>41.47302323362486</v>
+        <v>61.85817823188949</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4757,7 +4757,7 @@
         <v>135</v>
       </c>
       <c r="D133">
-        <v>41.9319470177668</v>
+        <v>60.44814623697598</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4771,7 +4771,7 @@
         <v>136</v>
       </c>
       <c r="D134">
-        <v>42.39087080190873</v>
+        <v>58.91129319455056</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4785,7 +4785,7 @@
         <v>137</v>
       </c>
       <c r="D135">
-        <v>42.84979458605066</v>
+        <v>59.81015942309325</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4799,7 +4799,7 @@
         <v>138</v>
       </c>
       <c r="D136">
-        <v>43.30871837019259</v>
+        <v>60.67431865726294</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4813,7 +4813,7 @@
         <v>139</v>
       </c>
       <c r="D137">
-        <v>43.76764215433453</v>
+        <v>61.54400339993682</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4827,7 +4827,7 @@
         <v>140</v>
       </c>
       <c r="D138">
-        <v>44.22656593847647</v>
+        <v>62.37901063599286</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4841,7 +4841,7 @@
         <v>141</v>
       </c>
       <c r="D139">
-        <v>44.6854897226184</v>
+        <v>59.73418161014251</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4855,7 +4855,7 @@
         <v>142</v>
       </c>
       <c r="D140">
-        <v>45.14441350676033</v>
+        <v>57.10532002513312</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4869,7 +4869,7 @@
         <v>143</v>
       </c>
       <c r="D141">
-        <v>45.60333729090227</v>
+        <v>55.53225712257375</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4883,7 +4883,7 @@
         <v>144</v>
       </c>
       <c r="D142">
-        <v>46.0622610750442</v>
+        <v>55.1710781636664</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4897,7 +4897,7 @@
         <v>145</v>
       </c>
       <c r="D143">
-        <v>46.52118485918614</v>
+        <v>54.59128132978131</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4911,7 +4911,7 @@
         <v>146</v>
       </c>
       <c r="D144">
-        <v>46.98010864332807</v>
+        <v>50.76911314141653</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4925,7 +4925,7 @@
         <v>147</v>
       </c>
       <c r="D145">
-        <v>47.43903242747</v>
+        <v>45.30115145136081</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4939,7 +4939,7 @@
         <v>148</v>
       </c>
       <c r="D146">
-        <v>47.89795621161193</v>
+        <v>38.79716532615989</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4953,7 +4953,7 @@
         <v>149</v>
       </c>
       <c r="D147">
-        <v>48.35687999575387</v>
+        <v>32.73673971861474</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4967,7 +4967,7 @@
         <v>150</v>
       </c>
       <c r="D148">
-        <v>48.8158037798958</v>
+        <v>27.5380258863943</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4981,7 +4981,7 @@
         <v>151</v>
       </c>
       <c r="D149">
-        <v>49.27472756403773</v>
+        <v>22.23751373218285</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4995,7 +4995,7 @@
         <v>152</v>
       </c>
       <c r="D150">
-        <v>49.73365134817966</v>
+        <v>18.89257931108279</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5009,7 +5009,7 @@
         <v>153</v>
       </c>
       <c r="D151">
-        <v>50.1925751323216</v>
+        <v>14.67726116105257</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5023,7 +5023,7 @@
         <v>154</v>
       </c>
       <c r="D152">
-        <v>50.65149891646354</v>
+        <v>11.80931891100816</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5037,7 +5037,7 @@
         <v>155</v>
       </c>
       <c r="D153">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5051,7 +5051,7 @@
         <v>156</v>
       </c>
       <c r="D154">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5065,7 +5065,7 @@
         <v>157</v>
       </c>
       <c r="D155">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5079,7 +5079,7 @@
         <v>158</v>
       </c>
       <c r="D156">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5093,7 +5093,7 @@
         <v>159</v>
       </c>
       <c r="D157">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5107,7 +5107,7 @@
         <v>160</v>
       </c>
       <c r="D158">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5121,7 +5121,7 @@
         <v>161</v>
       </c>
       <c r="D159">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5135,7 +5135,7 @@
         <v>162</v>
       </c>
       <c r="D160">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5149,7 +5149,7 @@
         <v>163</v>
       </c>
       <c r="D161">
-        <v>30.91777619836039</v>
+        <v>6.854528968943185</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5163,7 +5163,7 @@
         <v>164</v>
       </c>
       <c r="D162">
-        <v>31.37669998250232</v>
+        <v>7.03368572754606</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5177,7 +5177,7 @@
         <v>165</v>
       </c>
       <c r="D163">
-        <v>31.83562376664426</v>
+        <v>7.518983528026097</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5191,7 +5191,7 @@
         <v>166</v>
       </c>
       <c r="D164">
-        <v>32.29454755078619</v>
+        <v>8.425623627772788</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5205,7 +5205,7 @@
         <v>167</v>
       </c>
       <c r="D165">
-        <v>32.75347133492812</v>
+        <v>9.526346614371672</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5219,7 +5219,7 @@
         <v>168</v>
       </c>
       <c r="D166">
-        <v>33.21239511907006</v>
+        <v>9.975172679529194</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5233,7 +5233,7 @@
         <v>169</v>
       </c>
       <c r="D167">
-        <v>33.67131890321199</v>
+        <v>11.18521807835811</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5247,7 +5247,7 @@
         <v>170</v>
       </c>
       <c r="D168">
-        <v>34.13024268735393</v>
+        <v>14.22902793459837</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5261,7 +5261,7 @@
         <v>171</v>
       </c>
       <c r="D169">
-        <v>34.58916647149586</v>
+        <v>17.3452111256389</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5275,7 +5275,7 @@
         <v>172</v>
       </c>
       <c r="D170">
-        <v>35.0480902556378</v>
+        <v>22.38573995940518</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5289,7 +5289,7 @@
         <v>173</v>
       </c>
       <c r="D171">
-        <v>35.50701403977973</v>
+        <v>28.23852898690002</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5303,7 +5303,7 @@
         <v>174</v>
       </c>
       <c r="D172">
-        <v>35.96593782392166</v>
+        <v>34.8954568648472</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5317,7 +5317,7 @@
         <v>175</v>
       </c>
       <c r="D173">
-        <v>36.42486160806359</v>
+        <v>45.56737149155249</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5331,7 +5331,7 @@
         <v>176</v>
       </c>
       <c r="D174">
-        <v>36.88378539220552</v>
+        <v>52.46121389833615</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5345,7 +5345,7 @@
         <v>177</v>
       </c>
       <c r="D175">
-        <v>37.34270917634746</v>
+        <v>57.03478496451859</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5359,7 +5359,7 @@
         <v>178</v>
       </c>
       <c r="D176">
-        <v>37.80163296048939</v>
+        <v>62.58059496111045</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5373,7 +5373,7 @@
         <v>179</v>
       </c>
       <c r="D177">
-        <v>38.26055674463133</v>
+        <v>71.69760535869358</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5387,7 +5387,7 @@
         <v>180</v>
       </c>
       <c r="D178">
-        <v>38.71948052877326</v>
+        <v>73.97904219335875</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5401,7 +5401,7 @@
         <v>181</v>
       </c>
       <c r="D179">
-        <v>39.17840431291519</v>
+        <v>76.1336195197991</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>182</v>
       </c>
       <c r="D180">
-        <v>39.63732809705713</v>
+        <v>69.5451984688922</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5429,7 +5429,7 @@
         <v>183</v>
       </c>
       <c r="D181">
-        <v>40.09625188119907</v>
+        <v>65.48814501434239</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5443,7 +5443,7 @@
         <v>184</v>
       </c>
       <c r="D182">
-        <v>40.555175665341</v>
+        <v>66.4225272500118</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5457,7 +5457,7 @@
         <v>185</v>
       </c>
       <c r="D183">
-        <v>41.01409944948293</v>
+        <v>64.03620840335277</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5471,7 +5471,7 @@
         <v>186</v>
       </c>
       <c r="D184">
-        <v>41.47302323362486</v>
+        <v>61.85817823188949</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5485,7 +5485,7 @@
         <v>187</v>
       </c>
       <c r="D185">
-        <v>41.9319470177668</v>
+        <v>60.44814623697598</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5499,7 +5499,7 @@
         <v>188</v>
       </c>
       <c r="D186">
-        <v>42.39087080190873</v>
+        <v>58.91129319455056</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5513,7 +5513,7 @@
         <v>189</v>
       </c>
       <c r="D187">
-        <v>42.84979458605066</v>
+        <v>59.81015942309325</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5527,7 +5527,7 @@
         <v>190</v>
       </c>
       <c r="D188">
-        <v>43.30871837019259</v>
+        <v>60.67431865726294</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5541,7 +5541,7 @@
         <v>191</v>
       </c>
       <c r="D189">
-        <v>43.76764215433453</v>
+        <v>61.54400339993682</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5555,7 +5555,7 @@
         <v>192</v>
       </c>
       <c r="D190">
-        <v>44.22656593847647</v>
+        <v>62.37901063599286</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5569,7 +5569,7 @@
         <v>193</v>
       </c>
       <c r="D191">
-        <v>44.6854897226184</v>
+        <v>59.73418161014251</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5583,7 +5583,7 @@
         <v>194</v>
       </c>
       <c r="D192">
-        <v>45.14441350676033</v>
+        <v>57.10532002513312</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5597,7 +5597,7 @@
         <v>195</v>
       </c>
       <c r="D193">
-        <v>45.60333729090227</v>
+        <v>55.53225712257375</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5611,7 +5611,7 @@
         <v>196</v>
       </c>
       <c r="D194">
-        <v>46.0622610750442</v>
+        <v>55.1710781636664</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5625,7 +5625,7 @@
         <v>197</v>
       </c>
       <c r="D195">
-        <v>46.52118485918614</v>
+        <v>54.59128132978131</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5639,7 +5639,7 @@
         <v>198</v>
       </c>
       <c r="D196">
-        <v>46.98010864332807</v>
+        <v>50.76911314141653</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5653,7 +5653,7 @@
         <v>199</v>
       </c>
       <c r="D197">
-        <v>47.43903242747</v>
+        <v>45.30115145136081</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5667,7 +5667,7 @@
         <v>200</v>
       </c>
       <c r="D198">
-        <v>47.89795621161193</v>
+        <v>38.79716532615989</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5681,7 +5681,7 @@
         <v>201</v>
       </c>
       <c r="D199">
-        <v>48.35687999575387</v>
+        <v>32.73673971861474</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5695,7 +5695,7 @@
         <v>202</v>
       </c>
       <c r="D200">
-        <v>48.8158037798958</v>
+        <v>27.5380258863943</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5709,7 +5709,7 @@
         <v>203</v>
       </c>
       <c r="D201">
-        <v>49.27472756403773</v>
+        <v>22.23751373218285</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5723,7 +5723,7 @@
         <v>204</v>
       </c>
       <c r="D202">
-        <v>49.73365134817966</v>
+        <v>18.89257931108279</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5737,7 +5737,7 @@
         <v>205</v>
       </c>
       <c r="D203">
-        <v>50.1925751323216</v>
+        <v>14.67726116105257</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5751,7 +5751,7 @@
         <v>206</v>
       </c>
       <c r="D204">
-        <v>50.65149891646354</v>
+        <v>11.80931891100816</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5765,7 +5765,7 @@
         <v>207</v>
       </c>
       <c r="D205">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5779,7 +5779,7 @@
         <v>208</v>
       </c>
       <c r="D206">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5793,7 +5793,7 @@
         <v>209</v>
       </c>
       <c r="D207">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5807,7 +5807,7 @@
         <v>210</v>
       </c>
       <c r="D208">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5821,7 +5821,7 @@
         <v>211</v>
       </c>
       <c r="D209">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5835,7 +5835,7 @@
         <v>212</v>
       </c>
       <c r="D210">
-        <v>53.40504162131514</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5849,7 +5849,7 @@
         <v>213</v>
       </c>
       <c r="D211">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5863,7 +5863,7 @@
         <v>214</v>
       </c>
       <c r="D212">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6507,7 +6507,7 @@
         <v>260</v>
       </c>
       <c r="D258">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6521,7 +6521,7 @@
         <v>261</v>
       </c>
       <c r="D259">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6535,7 +6535,7 @@
         <v>262</v>
       </c>
       <c r="D260">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6549,7 +6549,7 @@
         <v>263</v>
       </c>
       <c r="D261">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6563,7 +6563,7 @@
         <v>264</v>
       </c>
       <c r="D262">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6577,7 +6577,7 @@
         <v>265</v>
       </c>
       <c r="D263">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6591,7 +6591,7 @@
         <v>266</v>
       </c>
       <c r="D264">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6605,7 +6605,7 @@
         <v>267</v>
       </c>
       <c r="D265">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7249,7 +7249,7 @@
         <v>313</v>
       </c>
       <c r="D311">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7263,7 +7263,7 @@
         <v>314</v>
       </c>
       <c r="D312">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7277,7 +7277,7 @@
         <v>315</v>
       </c>
       <c r="D313">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7291,7 +7291,7 @@
         <v>316</v>
       </c>
       <c r="D314">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7305,7 +7305,7 @@
         <v>317</v>
       </c>
       <c r="D315">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7319,7 +7319,7 @@
         <v>318</v>
       </c>
       <c r="D316">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7333,7 +7333,7 @@
         <v>319</v>
       </c>
       <c r="D317">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7977,7 +7977,7 @@
         <v>365</v>
       </c>
       <c r="D363">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7991,7 +7991,7 @@
         <v>366</v>
       </c>
       <c r="D364">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8005,7 +8005,7 @@
         <v>367</v>
       </c>
       <c r="D365">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8019,7 +8019,7 @@
         <v>368</v>
       </c>
       <c r="D366">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8033,7 +8033,7 @@
         <v>369</v>
       </c>
       <c r="D367">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8047,7 +8047,7 @@
         <v>370</v>
       </c>
       <c r="D368">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8061,7 +8061,7 @@
         <v>371</v>
       </c>
       <c r="D369">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8705,7 +8705,7 @@
         <v>417</v>
       </c>
       <c r="D415">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8719,7 +8719,7 @@
         <v>418</v>
       </c>
       <c r="D416">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8733,7 +8733,7 @@
         <v>419</v>
       </c>
       <c r="D417">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -8747,7 +8747,7 @@
         <v>420</v>
       </c>
       <c r="D418">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -8761,7 +8761,7 @@
         <v>421</v>
       </c>
       <c r="D419">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -8775,7 +8775,7 @@
         <v>422</v>
       </c>
       <c r="D420">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -8789,7 +8789,7 @@
         <v>423</v>
       </c>
       <c r="D421">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9433,7 +9433,7 @@
         <v>469</v>
       </c>
       <c r="D467">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9447,7 +9447,7 @@
         <v>470</v>
       </c>
       <c r="D468">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9461,7 +9461,7 @@
         <v>471</v>
       </c>
       <c r="D469">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9475,7 +9475,7 @@
         <v>472</v>
       </c>
       <c r="D470">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9489,7 +9489,7 @@
         <v>473</v>
       </c>
       <c r="D471">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9503,7 +9503,7 @@
         <v>474</v>
       </c>
       <c r="D472">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9517,7 +9517,7 @@
         <v>475</v>
       </c>
       <c r="D473">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10161,7 +10161,7 @@
         <v>521</v>
       </c>
       <c r="D519">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10175,7 +10175,7 @@
         <v>522</v>
       </c>
       <c r="D520">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10189,7 +10189,7 @@
         <v>523</v>
       </c>
       <c r="D521">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10203,7 +10203,7 @@
         <v>524</v>
       </c>
       <c r="D522">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10217,7 +10217,7 @@
         <v>525</v>
       </c>
       <c r="D523">
-        <v>53.40504162131514</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10231,7 +10231,7 @@
         <v>526</v>
       </c>
       <c r="D524">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10245,7 +10245,7 @@
         <v>527</v>
       </c>
       <c r="D525">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10889,7 +10889,7 @@
         <v>573</v>
       </c>
       <c r="D571">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -10903,7 +10903,7 @@
         <v>574</v>
       </c>
       <c r="D572">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -10917,7 +10917,7 @@
         <v>575</v>
       </c>
       <c r="D573">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -10931,7 +10931,7 @@
         <v>576</v>
       </c>
       <c r="D574">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -10945,7 +10945,7 @@
         <v>577</v>
       </c>
       <c r="D575">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -10959,7 +10959,7 @@
         <v>578</v>
       </c>
       <c r="D576">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -10973,7 +10973,7 @@
         <v>579</v>
       </c>
       <c r="D577">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -10987,7 +10987,7 @@
         <v>580</v>
       </c>
       <c r="D578">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11631,7 +11631,7 @@
         <v>626</v>
       </c>
       <c r="D624">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11645,7 +11645,7 @@
         <v>627</v>
       </c>
       <c r="D625">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11659,7 +11659,7 @@
         <v>628</v>
       </c>
       <c r="D626">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11673,7 +11673,7 @@
         <v>629</v>
       </c>
       <c r="D627">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11687,7 +11687,7 @@
         <v>630</v>
       </c>
       <c r="D628">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11701,7 +11701,7 @@
         <v>631</v>
       </c>
       <c r="D629">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11715,7 +11715,7 @@
         <v>632</v>
       </c>
       <c r="D630">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -12359,7 +12359,7 @@
         <v>678</v>
       </c>
       <c r="D676">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12373,7 +12373,7 @@
         <v>679</v>
       </c>
       <c r="D677">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12387,7 +12387,7 @@
         <v>680</v>
       </c>
       <c r="D678">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12401,7 +12401,7 @@
         <v>681</v>
       </c>
       <c r="D679">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12415,7 +12415,7 @@
         <v>682</v>
       </c>
       <c r="D680">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12429,7 +12429,7 @@
         <v>683</v>
       </c>
       <c r="D681">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12443,7 +12443,7 @@
         <v>684</v>
       </c>
       <c r="D682">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -13087,7 +13087,7 @@
         <v>730</v>
       </c>
       <c r="D728">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13101,7 +13101,7 @@
         <v>731</v>
       </c>
       <c r="D729">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13115,7 +13115,7 @@
         <v>732</v>
       </c>
       <c r="D730">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13129,7 +13129,7 @@
         <v>733</v>
       </c>
       <c r="D731">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13143,7 +13143,7 @@
         <v>734</v>
       </c>
       <c r="D732">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13157,7 +13157,7 @@
         <v>735</v>
       </c>
       <c r="D733">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13171,7 +13171,7 @@
         <v>736</v>
       </c>
       <c r="D734">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13815,7 +13815,7 @@
         <v>782</v>
       </c>
       <c r="D780">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -13829,7 +13829,7 @@
         <v>783</v>
       </c>
       <c r="D781">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -13843,7 +13843,7 @@
         <v>784</v>
       </c>
       <c r="D782">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -13857,7 +13857,7 @@
         <v>785</v>
       </c>
       <c r="D783">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -13871,7 +13871,7 @@
         <v>786</v>
       </c>
       <c r="D784">
-        <v>29.54100484593459</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -13885,7 +13885,7 @@
         <v>787</v>
       </c>
       <c r="D785">
-        <v>29.99992863007652</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -13899,7 +13899,7 @@
         <v>788</v>
       </c>
       <c r="D786">
-        <v>30.45885241421846</v>
+        <v>8.646967651357356</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14109,7 +14109,7 @@
         <v>803</v>
       </c>
       <c r="D801">
-        <v>37.34270917634746</v>
+        <v>57.03478496451859</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14123,7 +14123,7 @@
         <v>804</v>
       </c>
       <c r="D802">
-        <v>37.80163296048939</v>
+        <v>62.58059496111045</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14137,7 +14137,7 @@
         <v>805</v>
       </c>
       <c r="D803">
-        <v>38.26055674463133</v>
+        <v>71.69760535869358</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14151,7 +14151,7 @@
         <v>806</v>
       </c>
       <c r="D804">
-        <v>38.71948052877326</v>
+        <v>73.97904219335875</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14165,7 +14165,7 @@
         <v>807</v>
       </c>
       <c r="D805">
-        <v>39.17840431291519</v>
+        <v>76.1336195197991</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14179,7 +14179,7 @@
         <v>808</v>
       </c>
       <c r="D806">
-        <v>39.63732809705713</v>
+        <v>69.5451984688922</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14193,7 +14193,7 @@
         <v>809</v>
       </c>
       <c r="D807">
-        <v>40.09625188119907</v>
+        <v>65.48814501434239</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14207,7 +14207,7 @@
         <v>810</v>
       </c>
       <c r="D808">
-        <v>40.555175665341</v>
+        <v>66.4225272500118</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14221,7 +14221,7 @@
         <v>811</v>
       </c>
       <c r="D809">
-        <v>41.01409944948293</v>
+        <v>64.03620840335277</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14235,7 +14235,7 @@
         <v>812</v>
       </c>
       <c r="D810">
-        <v>41.47302323362486</v>
+        <v>61.85817823188949</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14249,7 +14249,7 @@
         <v>813</v>
       </c>
       <c r="D811">
-        <v>41.9319470177668</v>
+        <v>60.44814623697598</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14263,7 +14263,7 @@
         <v>814</v>
       </c>
       <c r="D812">
-        <v>42.39087080190873</v>
+        <v>58.91129319455056</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14277,7 +14277,7 @@
         <v>815</v>
       </c>
       <c r="D813">
-        <v>42.84979458605066</v>
+        <v>59.81015942309325</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14291,7 +14291,7 @@
         <v>816</v>
       </c>
       <c r="D814">
-        <v>43.30871837019259</v>
+        <v>60.67431865726294</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14305,7 +14305,7 @@
         <v>817</v>
       </c>
       <c r="D815">
-        <v>43.76764215433453</v>
+        <v>61.54400339993682</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14319,7 +14319,7 @@
         <v>818</v>
       </c>
       <c r="D816">
-        <v>44.22656593847647</v>
+        <v>62.37901063599286</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14333,7 +14333,7 @@
         <v>819</v>
       </c>
       <c r="D817">
-        <v>44.6854897226184</v>
+        <v>59.73418161014251</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14347,7 +14347,7 @@
         <v>820</v>
       </c>
       <c r="D818">
-        <v>45.14441350676033</v>
+        <v>57.10532002513312</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14361,7 +14361,7 @@
         <v>821</v>
       </c>
       <c r="D819">
-        <v>45.60333729090227</v>
+        <v>55.53225712257375</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14375,7 +14375,7 @@
         <v>822</v>
       </c>
       <c r="D820">
-        <v>46.0622610750442</v>
+        <v>55.1710781636664</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14389,7 +14389,7 @@
         <v>823</v>
       </c>
       <c r="D821">
-        <v>46.52118485918614</v>
+        <v>54.59128132978131</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14403,7 +14403,7 @@
         <v>824</v>
       </c>
       <c r="D822">
-        <v>46.98010864332807</v>
+        <v>50.76911314141653</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14417,7 +14417,7 @@
         <v>825</v>
       </c>
       <c r="D823">
-        <v>47.43903242747</v>
+        <v>45.30115145136081</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14431,7 +14431,7 @@
         <v>826</v>
       </c>
       <c r="D824">
-        <v>47.89795621161193</v>
+        <v>38.79716532615989</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14445,7 +14445,7 @@
         <v>827</v>
       </c>
       <c r="D825">
-        <v>48.35687999575387</v>
+        <v>32.73673971861474</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14459,7 +14459,7 @@
         <v>828</v>
       </c>
       <c r="D826">
-        <v>48.8158037798958</v>
+        <v>27.5380258863943</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14473,7 +14473,7 @@
         <v>829</v>
       </c>
       <c r="D827">
-        <v>49.27472756403773</v>
+        <v>22.23751373218285</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14487,7 +14487,7 @@
         <v>830</v>
       </c>
       <c r="D828">
-        <v>49.73365134817966</v>
+        <v>18.89257931108279</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14501,7 +14501,7 @@
         <v>831</v>
       </c>
       <c r="D829">
-        <v>50.1925751323216</v>
+        <v>14.67726116105257</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14515,7 +14515,7 @@
         <v>832</v>
       </c>
       <c r="D830">
-        <v>50.65149891646354</v>
+        <v>11.80931891100816</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14529,7 +14529,7 @@
         <v>833</v>
       </c>
       <c r="D831">
-        <v>51.11042270060547</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14543,7 +14543,7 @@
         <v>834</v>
       </c>
       <c r="D832">
-        <v>51.5693464847474</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14557,7 +14557,7 @@
         <v>835</v>
       </c>
       <c r="D833">
-        <v>52.02827026888934</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14571,7 +14571,7 @@
         <v>836</v>
       </c>
       <c r="D834">
-        <v>52.48719405303127</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14585,7 +14585,7 @@
         <v>837</v>
       </c>
       <c r="D835">
-        <v>52.9461178371732</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14599,7 +14599,7 @@
         <v>838</v>
       </c>
       <c r="D836">
-        <v>53.40504162131514</v>
+        <v>10.15805966694125</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheet/Grass_data_weekly_2009-2024.xlsx
+++ b/spreadsheet/Grass_data_weekly_2009-2024.xlsx
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2951,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6.854528968943185</v>
+        <v>6.930118585791575</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2979,7 +2979,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>7.03368572754606</v>
+        <v>6.978745030230113</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2993,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>7.518983528026097</v>
+        <v>7.461574481879046</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3007,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>8.425623627772788</v>
+        <v>8.389812718975181</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3021,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>9.526346614371672</v>
+        <v>9.689084009284043</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3035,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>9.975172679529194</v>
+        <v>9.897648956975232</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3049,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>11.18521807835811</v>
+        <v>11.29733187705322</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3063,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>14.22902793459837</v>
+        <v>14.15078438443025</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3077,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>17.3452111256389</v>
+        <v>17.27407695560362</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3091,7 +3091,7 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>22.38573995940518</v>
+        <v>22.33919951553991</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>28.23852898690002</v>
+        <v>27.98984445195714</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3119,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>34.8954568648472</v>
+        <v>35.19888390237617</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3133,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>45.56737149155249</v>
+        <v>45.05432886144337</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3147,7 +3147,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>52.46121389833615</v>
+        <v>52.16929440240701</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3161,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>57.03478496451859</v>
+        <v>56.57040600912357</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3175,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>62.58059496111045</v>
+        <v>62.49727657554863</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3189,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>71.69760535869358</v>
+        <v>71.29277978162189</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3203,7 +3203,7 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>73.97904219335875</v>
+        <v>74.20864166144314</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3217,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>76.1336195197991</v>
+        <v>75.75617350133528</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3231,7 +3231,7 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>69.5451984688922</v>
+        <v>69.23215617774684</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3245,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="D25">
-        <v>65.48814501434239</v>
+        <v>66.35583125096437</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3259,7 +3259,7 @@
         <v>28</v>
       </c>
       <c r="D26">
-        <v>66.4225272500118</v>
+        <v>67.28852804058688</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3273,7 +3273,7 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>64.03620840335277</v>
+        <v>63.53466436362915</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3287,7 +3287,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>61.85817823188949</v>
+        <v>61.39608875837782</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3301,7 +3301,7 @@
         <v>31</v>
       </c>
       <c r="D29">
-        <v>60.44814623697598</v>
+        <v>59.82297433277076</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3315,7 +3315,7 @@
         <v>32</v>
       </c>
       <c r="D30">
-        <v>58.91129319455056</v>
+        <v>59.99626800731946</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3329,7 +3329,7 @@
         <v>33</v>
       </c>
       <c r="D31">
-        <v>59.81015942309325</v>
+        <v>59.59798490639051</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3343,7 +3343,7 @@
         <v>34</v>
       </c>
       <c r="D32">
-        <v>60.67431865726294</v>
+        <v>60.0472300893551</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3357,7 +3357,7 @@
         <v>35</v>
       </c>
       <c r="D33">
-        <v>61.54400339993682</v>
+        <v>61.84368773323343</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3371,7 +3371,7 @@
         <v>36</v>
       </c>
       <c r="D34">
-        <v>62.37901063599286</v>
+        <v>61.92567201670877</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3385,7 +3385,7 @@
         <v>37</v>
       </c>
       <c r="D35">
-        <v>59.73418161014251</v>
+        <v>59.66780478916508</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3399,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="D36">
-        <v>57.10532002513312</v>
+        <v>57.16037791688875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3413,7 +3413,7 @@
         <v>39</v>
       </c>
       <c r="D37">
-        <v>55.53225712257375</v>
+        <v>55.79615820617291</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3427,7 +3427,7 @@
         <v>40</v>
       </c>
       <c r="D38">
-        <v>55.1710781636664</v>
+        <v>54.64606831322272</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3441,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="D39">
-        <v>54.59128132978131</v>
+        <v>54.68376999536412</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3455,7 +3455,7 @@
         <v>42</v>
       </c>
       <c r="D40">
-        <v>50.76911314141653</v>
+        <v>50.86043815906314</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3469,7 +3469,7 @@
         <v>43</v>
       </c>
       <c r="D41">
-        <v>45.30115145136081</v>
+        <v>45.28851709401708</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3483,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="D42">
-        <v>38.79716532615989</v>
+        <v>38.80453135834753</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>45</v>
       </c>
       <c r="D43">
-        <v>32.73673971861474</v>
+        <v>32.56216513878279</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3511,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="D44">
-        <v>27.5380258863943</v>
+        <v>27.68223375970436</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3525,7 +3525,7 @@
         <v>47</v>
       </c>
       <c r="D45">
-        <v>22.23751373218285</v>
+        <v>22.33114531198935</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3539,7 +3539,7 @@
         <v>48</v>
       </c>
       <c r="D46">
-        <v>18.89257931108279</v>
+        <v>18.69653137750623</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3553,7 +3553,7 @@
         <v>49</v>
       </c>
       <c r="D47">
-        <v>14.67726116105257</v>
+        <v>14.8529093132343</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3567,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="D48">
-        <v>11.80931891100816</v>
+        <v>11.93737215295884</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3581,7 +3581,7 @@
         <v>51</v>
       </c>
       <c r="D49">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3595,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="D50">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3609,7 +3609,7 @@
         <v>53</v>
       </c>
       <c r="D51">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3623,7 +3623,7 @@
         <v>54</v>
       </c>
       <c r="D52">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3637,7 +3637,7 @@
         <v>55</v>
       </c>
       <c r="D53">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3651,7 +3651,7 @@
         <v>56</v>
       </c>
       <c r="D54">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3665,7 +3665,7 @@
         <v>57</v>
       </c>
       <c r="D55">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3679,7 +3679,7 @@
         <v>58</v>
       </c>
       <c r="D56">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3693,7 +3693,7 @@
         <v>59</v>
       </c>
       <c r="D57">
-        <v>6.854528968943185</v>
+        <v>6.930118585791575</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3707,7 +3707,7 @@
         <v>60</v>
       </c>
       <c r="D58">
-        <v>7.03368572754606</v>
+        <v>6.978745030230113</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3721,7 +3721,7 @@
         <v>61</v>
       </c>
       <c r="D59">
-        <v>7.518983528026097</v>
+        <v>7.461574481879046</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3735,7 +3735,7 @@
         <v>62</v>
       </c>
       <c r="D60">
-        <v>8.425623627772788</v>
+        <v>8.389812718975181</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3749,7 +3749,7 @@
         <v>63</v>
       </c>
       <c r="D61">
-        <v>9.526346614371672</v>
+        <v>9.689084009284043</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3763,7 +3763,7 @@
         <v>64</v>
       </c>
       <c r="D62">
-        <v>9.975172679529194</v>
+        <v>9.897648956975232</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3777,7 +3777,7 @@
         <v>65</v>
       </c>
       <c r="D63">
-        <v>11.18521807835811</v>
+        <v>11.29733187705322</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3791,7 +3791,7 @@
         <v>66</v>
       </c>
       <c r="D64">
-        <v>14.22902793459837</v>
+        <v>14.15078438443025</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3805,7 +3805,7 @@
         <v>67</v>
       </c>
       <c r="D65">
-        <v>17.3452111256389</v>
+        <v>17.27407695560362</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3819,7 +3819,7 @@
         <v>68</v>
       </c>
       <c r="D66">
-        <v>22.38573995940518</v>
+        <v>22.33919951553991</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3833,7 +3833,7 @@
         <v>69</v>
       </c>
       <c r="D67">
-        <v>28.23852898690002</v>
+        <v>27.98984445195714</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3847,7 +3847,7 @@
         <v>70</v>
       </c>
       <c r="D68">
-        <v>34.8954568648472</v>
+        <v>35.19888390237617</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3861,7 +3861,7 @@
         <v>71</v>
       </c>
       <c r="D69">
-        <v>45.56737149155249</v>
+        <v>45.05432886144337</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3875,7 +3875,7 @@
         <v>72</v>
       </c>
       <c r="D70">
-        <v>52.46121389833615</v>
+        <v>52.16929440240701</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3889,7 +3889,7 @@
         <v>73</v>
       </c>
       <c r="D71">
-        <v>57.03478496451859</v>
+        <v>56.57040600912357</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3903,7 +3903,7 @@
         <v>74</v>
       </c>
       <c r="D72">
-        <v>62.58059496111045</v>
+        <v>62.49727657554863</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3917,7 +3917,7 @@
         <v>75</v>
       </c>
       <c r="D73">
-        <v>71.69760535869358</v>
+        <v>71.29277978162189</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3931,7 +3931,7 @@
         <v>76</v>
       </c>
       <c r="D74">
-        <v>73.97904219335875</v>
+        <v>74.20864166144314</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3945,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="D75">
-        <v>76.1336195197991</v>
+        <v>75.75617350133528</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3959,7 +3959,7 @@
         <v>78</v>
       </c>
       <c r="D76">
-        <v>69.5451984688922</v>
+        <v>69.23215617774684</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3973,7 +3973,7 @@
         <v>79</v>
       </c>
       <c r="D77">
-        <v>65.48814501434239</v>
+        <v>66.35583125096437</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3987,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="D78">
-        <v>66.4225272500118</v>
+        <v>67.28852804058688</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4001,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="D79">
-        <v>64.03620840335277</v>
+        <v>63.53466436362915</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4015,7 +4015,7 @@
         <v>82</v>
       </c>
       <c r="D80">
-        <v>61.85817823188949</v>
+        <v>61.39608875837782</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4029,7 +4029,7 @@
         <v>83</v>
       </c>
       <c r="D81">
-        <v>60.44814623697598</v>
+        <v>59.82297433277076</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4043,7 +4043,7 @@
         <v>84</v>
       </c>
       <c r="D82">
-        <v>58.91129319455056</v>
+        <v>59.99626800731946</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4057,7 +4057,7 @@
         <v>85</v>
       </c>
       <c r="D83">
-        <v>59.81015942309325</v>
+        <v>59.59798490639051</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4071,7 +4071,7 @@
         <v>86</v>
       </c>
       <c r="D84">
-        <v>60.67431865726294</v>
+        <v>60.0472300893551</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4085,7 +4085,7 @@
         <v>87</v>
       </c>
       <c r="D85">
-        <v>61.54400339993682</v>
+        <v>61.84368773323343</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4099,7 +4099,7 @@
         <v>88</v>
       </c>
       <c r="D86">
-        <v>62.37901063599286</v>
+        <v>61.92567201670877</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4113,7 +4113,7 @@
         <v>89</v>
       </c>
       <c r="D87">
-        <v>59.73418161014251</v>
+        <v>59.66780478916508</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4127,7 +4127,7 @@
         <v>90</v>
       </c>
       <c r="D88">
-        <v>57.10532002513312</v>
+        <v>57.16037791688875</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="D89">
-        <v>55.53225712257375</v>
+        <v>55.79615820617291</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4155,7 +4155,7 @@
         <v>92</v>
       </c>
       <c r="D90">
-        <v>55.1710781636664</v>
+        <v>54.64606831322272</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4169,7 +4169,7 @@
         <v>93</v>
       </c>
       <c r="D91">
-        <v>54.59128132978131</v>
+        <v>54.68376999536412</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4183,7 +4183,7 @@
         <v>94</v>
       </c>
       <c r="D92">
-        <v>50.76911314141653</v>
+        <v>50.86043815906314</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4197,7 +4197,7 @@
         <v>95</v>
       </c>
       <c r="D93">
-        <v>45.30115145136081</v>
+        <v>45.28851709401708</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4211,7 +4211,7 @@
         <v>96</v>
       </c>
       <c r="D94">
-        <v>38.79716532615989</v>
+        <v>38.80453135834753</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4225,7 +4225,7 @@
         <v>97</v>
       </c>
       <c r="D95">
-        <v>32.73673971861474</v>
+        <v>32.56216513878279</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4239,7 +4239,7 @@
         <v>98</v>
       </c>
       <c r="D96">
-        <v>27.5380258863943</v>
+        <v>27.68223375970436</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4253,7 +4253,7 @@
         <v>99</v>
       </c>
       <c r="D97">
-        <v>22.23751373218285</v>
+        <v>22.33114531198935</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4267,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="D98">
-        <v>18.89257931108279</v>
+        <v>18.69653137750623</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4281,7 +4281,7 @@
         <v>101</v>
       </c>
       <c r="D99">
-        <v>14.67726116105257</v>
+        <v>14.8529093132343</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4295,7 +4295,7 @@
         <v>102</v>
       </c>
       <c r="D100">
-        <v>11.80931891100816</v>
+        <v>11.93737215295884</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4309,7 +4309,7 @@
         <v>103</v>
       </c>
       <c r="D101">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4323,7 +4323,7 @@
         <v>104</v>
       </c>
       <c r="D102">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4337,7 +4337,7 @@
         <v>105</v>
       </c>
       <c r="D103">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4351,7 +4351,7 @@
         <v>106</v>
       </c>
       <c r="D104">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4365,7 +4365,7 @@
         <v>107</v>
       </c>
       <c r="D105">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4379,7 +4379,7 @@
         <v>108</v>
       </c>
       <c r="D106">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4393,7 +4393,7 @@
         <v>109</v>
       </c>
       <c r="D107">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4407,7 +4407,7 @@
         <v>110</v>
       </c>
       <c r="D108">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4421,7 +4421,7 @@
         <v>111</v>
       </c>
       <c r="D109">
-        <v>6.854528968943185</v>
+        <v>6.930118585791575</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4435,7 +4435,7 @@
         <v>112</v>
       </c>
       <c r="D110">
-        <v>7.03368572754606</v>
+        <v>6.978745030230113</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4449,7 +4449,7 @@
         <v>113</v>
       </c>
       <c r="D111">
-        <v>7.518983528026097</v>
+        <v>7.461574481879046</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4463,7 +4463,7 @@
         <v>114</v>
       </c>
       <c r="D112">
-        <v>8.425623627772788</v>
+        <v>8.389812718975181</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4477,7 +4477,7 @@
         <v>115</v>
       </c>
       <c r="D113">
-        <v>9.526346614371672</v>
+        <v>9.689084009284043</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4491,7 +4491,7 @@
         <v>116</v>
       </c>
       <c r="D114">
-        <v>9.975172679529194</v>
+        <v>9.897648956975232</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4505,7 +4505,7 @@
         <v>117</v>
       </c>
       <c r="D115">
-        <v>11.18521807835811</v>
+        <v>11.29733187705322</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="D116">
-        <v>14.22902793459837</v>
+        <v>14.15078438443025</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4533,7 +4533,7 @@
         <v>119</v>
       </c>
       <c r="D117">
-        <v>17.3452111256389</v>
+        <v>17.27407695560362</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4547,7 +4547,7 @@
         <v>120</v>
       </c>
       <c r="D118">
-        <v>22.38573995940518</v>
+        <v>22.33919951553991</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4561,7 +4561,7 @@
         <v>121</v>
       </c>
       <c r="D119">
-        <v>28.23852898690002</v>
+        <v>27.98984445195714</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4575,7 +4575,7 @@
         <v>122</v>
       </c>
       <c r="D120">
-        <v>34.8954568648472</v>
+        <v>35.19888390237617</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4589,7 +4589,7 @@
         <v>123</v>
       </c>
       <c r="D121">
-        <v>45.56737149155249</v>
+        <v>45.05432886144337</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4603,7 +4603,7 @@
         <v>124</v>
       </c>
       <c r="D122">
-        <v>52.46121389833615</v>
+        <v>52.16929440240701</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4617,7 +4617,7 @@
         <v>125</v>
       </c>
       <c r="D123">
-        <v>57.03478496451859</v>
+        <v>56.57040600912357</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4631,7 +4631,7 @@
         <v>126</v>
       </c>
       <c r="D124">
-        <v>62.58059496111045</v>
+        <v>62.49727657554863</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4645,7 +4645,7 @@
         <v>127</v>
       </c>
       <c r="D125">
-        <v>71.69760535869358</v>
+        <v>71.29277978162189</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4659,7 +4659,7 @@
         <v>128</v>
       </c>
       <c r="D126">
-        <v>73.97904219335875</v>
+        <v>74.20864166144314</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4673,7 +4673,7 @@
         <v>129</v>
       </c>
       <c r="D127">
-        <v>76.1336195197991</v>
+        <v>75.75617350133528</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4687,7 +4687,7 @@
         <v>130</v>
       </c>
       <c r="D128">
-        <v>69.5451984688922</v>
+        <v>69.23215617774684</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4701,7 +4701,7 @@
         <v>131</v>
       </c>
       <c r="D129">
-        <v>65.48814501434239</v>
+        <v>66.35583125096437</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4715,7 +4715,7 @@
         <v>132</v>
       </c>
       <c r="D130">
-        <v>66.4225272500118</v>
+        <v>67.28852804058688</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4729,7 +4729,7 @@
         <v>133</v>
       </c>
       <c r="D131">
-        <v>64.03620840335277</v>
+        <v>63.53466436362915</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4743,7 +4743,7 @@
         <v>134</v>
       </c>
       <c r="D132">
-        <v>61.85817823188949</v>
+        <v>61.39608875837782</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4757,7 +4757,7 @@
         <v>135</v>
       </c>
       <c r="D133">
-        <v>60.44814623697598</v>
+        <v>59.82297433277076</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4771,7 +4771,7 @@
         <v>136</v>
       </c>
       <c r="D134">
-        <v>58.91129319455056</v>
+        <v>59.99626800731946</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4785,7 +4785,7 @@
         <v>137</v>
       </c>
       <c r="D135">
-        <v>59.81015942309325</v>
+        <v>59.59798490639051</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4799,7 +4799,7 @@
         <v>138</v>
       </c>
       <c r="D136">
-        <v>60.67431865726294</v>
+        <v>60.0472300893551</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4813,7 +4813,7 @@
         <v>139</v>
       </c>
       <c r="D137">
-        <v>61.54400339993682</v>
+        <v>61.84368773323343</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4827,7 +4827,7 @@
         <v>140</v>
       </c>
       <c r="D138">
-        <v>62.37901063599286</v>
+        <v>61.92567201670877</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4841,7 +4841,7 @@
         <v>141</v>
       </c>
       <c r="D139">
-        <v>59.73418161014251</v>
+        <v>59.66780478916508</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4855,7 +4855,7 @@
         <v>142</v>
       </c>
       <c r="D140">
-        <v>57.10532002513312</v>
+        <v>57.16037791688875</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4869,7 +4869,7 @@
         <v>143</v>
       </c>
       <c r="D141">
-        <v>55.53225712257375</v>
+        <v>55.79615820617291</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4883,7 +4883,7 @@
         <v>144</v>
       </c>
       <c r="D142">
-        <v>55.1710781636664</v>
+        <v>54.64606831322272</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4897,7 +4897,7 @@
         <v>145</v>
       </c>
       <c r="D143">
-        <v>54.59128132978131</v>
+        <v>54.68376999536412</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4911,7 +4911,7 @@
         <v>146</v>
       </c>
       <c r="D144">
-        <v>50.76911314141653</v>
+        <v>50.86043815906314</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4925,7 +4925,7 @@
         <v>147</v>
       </c>
       <c r="D145">
-        <v>45.30115145136081</v>
+        <v>45.28851709401708</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4939,7 +4939,7 @@
         <v>148</v>
       </c>
       <c r="D146">
-        <v>38.79716532615989</v>
+        <v>38.80453135834753</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4953,7 +4953,7 @@
         <v>149</v>
       </c>
       <c r="D147">
-        <v>32.73673971861474</v>
+        <v>32.56216513878279</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4967,7 +4967,7 @@
         <v>150</v>
       </c>
       <c r="D148">
-        <v>27.5380258863943</v>
+        <v>27.68223375970436</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4981,7 +4981,7 @@
         <v>151</v>
       </c>
       <c r="D149">
-        <v>22.23751373218285</v>
+        <v>22.33114531198935</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4995,7 +4995,7 @@
         <v>152</v>
       </c>
       <c r="D150">
-        <v>18.89257931108279</v>
+        <v>18.69653137750623</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5009,7 +5009,7 @@
         <v>153</v>
       </c>
       <c r="D151">
-        <v>14.67726116105257</v>
+        <v>14.8529093132343</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5023,7 +5023,7 @@
         <v>154</v>
       </c>
       <c r="D152">
-        <v>11.80931891100816</v>
+        <v>11.93737215295884</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5037,7 +5037,7 @@
         <v>155</v>
       </c>
       <c r="D153">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5051,7 +5051,7 @@
         <v>156</v>
       </c>
       <c r="D154">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5065,7 +5065,7 @@
         <v>157</v>
       </c>
       <c r="D155">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5079,7 +5079,7 @@
         <v>158</v>
       </c>
       <c r="D156">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5093,7 +5093,7 @@
         <v>159</v>
       </c>
       <c r="D157">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5107,7 +5107,7 @@
         <v>160</v>
       </c>
       <c r="D158">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5121,7 +5121,7 @@
         <v>161</v>
       </c>
       <c r="D159">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5135,7 +5135,7 @@
         <v>162</v>
       </c>
       <c r="D160">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5149,7 +5149,7 @@
         <v>163</v>
       </c>
       <c r="D161">
-        <v>6.854528968943185</v>
+        <v>6.930118585791575</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5163,7 +5163,7 @@
         <v>164</v>
       </c>
       <c r="D162">
-        <v>7.03368572754606</v>
+        <v>6.978745030230113</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5177,7 +5177,7 @@
         <v>165</v>
       </c>
       <c r="D163">
-        <v>7.518983528026097</v>
+        <v>7.461574481879046</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5191,7 +5191,7 @@
         <v>166</v>
       </c>
       <c r="D164">
-        <v>8.425623627772788</v>
+        <v>8.389812718975181</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5205,7 +5205,7 @@
         <v>167</v>
       </c>
       <c r="D165">
-        <v>9.526346614371672</v>
+        <v>9.689084009284043</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5219,7 +5219,7 @@
         <v>168</v>
       </c>
       <c r="D166">
-        <v>9.975172679529194</v>
+        <v>9.897648956975232</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5233,7 +5233,7 @@
         <v>169</v>
       </c>
       <c r="D167">
-        <v>11.18521807835811</v>
+        <v>11.29733187705322</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5247,7 +5247,7 @@
         <v>170</v>
       </c>
       <c r="D168">
-        <v>14.22902793459837</v>
+        <v>14.15078438443025</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5261,7 +5261,7 @@
         <v>171</v>
       </c>
       <c r="D169">
-        <v>17.3452111256389</v>
+        <v>17.27407695560362</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5275,7 +5275,7 @@
         <v>172</v>
       </c>
       <c r="D170">
-        <v>22.38573995940518</v>
+        <v>22.33919951553991</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5289,7 +5289,7 @@
         <v>173</v>
       </c>
       <c r="D171">
-        <v>28.23852898690002</v>
+        <v>27.98984445195714</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5303,7 +5303,7 @@
         <v>174</v>
       </c>
       <c r="D172">
-        <v>34.8954568648472</v>
+        <v>35.19888390237617</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5317,7 +5317,7 @@
         <v>175</v>
       </c>
       <c r="D173">
-        <v>45.56737149155249</v>
+        <v>45.05432886144337</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5331,7 +5331,7 @@
         <v>176</v>
       </c>
       <c r="D174">
-        <v>52.46121389833615</v>
+        <v>52.16929440240701</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5345,7 +5345,7 @@
         <v>177</v>
       </c>
       <c r="D175">
-        <v>57.03478496451859</v>
+        <v>56.57040600912357</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5359,7 +5359,7 @@
         <v>178</v>
       </c>
       <c r="D176">
-        <v>62.58059496111045</v>
+        <v>62.49727657554863</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5373,7 +5373,7 @@
         <v>179</v>
       </c>
       <c r="D177">
-        <v>71.69760535869358</v>
+        <v>71.29277978162189</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5387,7 +5387,7 @@
         <v>180</v>
       </c>
       <c r="D178">
-        <v>73.97904219335875</v>
+        <v>74.20864166144314</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5401,7 +5401,7 @@
         <v>181</v>
       </c>
       <c r="D179">
-        <v>76.1336195197991</v>
+        <v>75.75617350133528</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>182</v>
       </c>
       <c r="D180">
-        <v>69.5451984688922</v>
+        <v>69.23215617774684</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5429,7 +5429,7 @@
         <v>183</v>
       </c>
       <c r="D181">
-        <v>65.48814501434239</v>
+        <v>66.35583125096437</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5443,7 +5443,7 @@
         <v>184</v>
       </c>
       <c r="D182">
-        <v>66.4225272500118</v>
+        <v>67.28852804058688</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5457,7 +5457,7 @@
         <v>185</v>
       </c>
       <c r="D183">
-        <v>64.03620840335277</v>
+        <v>63.53466436362915</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5471,7 +5471,7 @@
         <v>186</v>
       </c>
       <c r="D184">
-        <v>61.85817823188949</v>
+        <v>61.39608875837782</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5485,7 +5485,7 @@
         <v>187</v>
       </c>
       <c r="D185">
-        <v>60.44814623697598</v>
+        <v>59.82297433277076</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5499,7 +5499,7 @@
         <v>188</v>
       </c>
       <c r="D186">
-        <v>58.91129319455056</v>
+        <v>59.99626800731946</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5513,7 +5513,7 @@
         <v>189</v>
       </c>
       <c r="D187">
-        <v>59.81015942309325</v>
+        <v>59.59798490639051</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5527,7 +5527,7 @@
         <v>190</v>
       </c>
       <c r="D188">
-        <v>60.67431865726294</v>
+        <v>60.0472300893551</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5541,7 +5541,7 @@
         <v>191</v>
       </c>
       <c r="D189">
-        <v>61.54400339993682</v>
+        <v>61.84368773323343</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5555,7 +5555,7 @@
         <v>192</v>
       </c>
       <c r="D190">
-        <v>62.37901063599286</v>
+        <v>61.92567201670877</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5569,7 +5569,7 @@
         <v>193</v>
       </c>
       <c r="D191">
-        <v>59.73418161014251</v>
+        <v>59.66780478916508</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5583,7 +5583,7 @@
         <v>194</v>
       </c>
       <c r="D192">
-        <v>57.10532002513312</v>
+        <v>57.16037791688875</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5597,7 +5597,7 @@
         <v>195</v>
       </c>
       <c r="D193">
-        <v>55.53225712257375</v>
+        <v>55.79615820617291</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5611,7 +5611,7 @@
         <v>196</v>
       </c>
       <c r="D194">
-        <v>55.1710781636664</v>
+        <v>54.64606831322272</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5625,7 +5625,7 @@
         <v>197</v>
       </c>
       <c r="D195">
-        <v>54.59128132978131</v>
+        <v>54.68376999536412</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5639,7 +5639,7 @@
         <v>198</v>
       </c>
       <c r="D196">
-        <v>50.76911314141653</v>
+        <v>50.86043815906314</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5653,7 +5653,7 @@
         <v>199</v>
       </c>
       <c r="D197">
-        <v>45.30115145136081</v>
+        <v>45.28851709401708</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5667,7 +5667,7 @@
         <v>200</v>
       </c>
       <c r="D198">
-        <v>38.79716532615989</v>
+        <v>38.80453135834753</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5681,7 +5681,7 @@
         <v>201</v>
       </c>
       <c r="D199">
-        <v>32.73673971861474</v>
+        <v>32.56216513878279</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5695,7 +5695,7 @@
         <v>202</v>
       </c>
       <c r="D200">
-        <v>27.5380258863943</v>
+        <v>27.68223375970436</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5709,7 +5709,7 @@
         <v>203</v>
       </c>
       <c r="D201">
-        <v>22.23751373218285</v>
+        <v>22.33114531198935</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5723,7 +5723,7 @@
         <v>204</v>
       </c>
       <c r="D202">
-        <v>18.89257931108279</v>
+        <v>18.69653137750623</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5737,7 +5737,7 @@
         <v>205</v>
       </c>
       <c r="D203">
-        <v>14.67726116105257</v>
+        <v>14.8529093132343</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5751,7 +5751,7 @@
         <v>206</v>
       </c>
       <c r="D204">
-        <v>11.80931891100816</v>
+        <v>11.93737215295884</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5765,7 +5765,7 @@
         <v>207</v>
       </c>
       <c r="D205">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5779,7 +5779,7 @@
         <v>208</v>
       </c>
       <c r="D206">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5793,7 +5793,7 @@
         <v>209</v>
       </c>
       <c r="D207">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5807,7 +5807,7 @@
         <v>210</v>
       </c>
       <c r="D208">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5821,7 +5821,7 @@
         <v>211</v>
       </c>
       <c r="D209">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5835,7 +5835,7 @@
         <v>212</v>
       </c>
       <c r="D210">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5849,7 +5849,7 @@
         <v>213</v>
       </c>
       <c r="D211">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5863,7 +5863,7 @@
         <v>214</v>
       </c>
       <c r="D212">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6507,7 +6507,7 @@
         <v>260</v>
       </c>
       <c r="D258">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6521,7 +6521,7 @@
         <v>261</v>
       </c>
       <c r="D259">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6535,7 +6535,7 @@
         <v>262</v>
       </c>
       <c r="D260">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6549,7 +6549,7 @@
         <v>263</v>
       </c>
       <c r="D261">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6563,7 +6563,7 @@
         <v>264</v>
       </c>
       <c r="D262">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6577,7 +6577,7 @@
         <v>265</v>
       </c>
       <c r="D263">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6591,7 +6591,7 @@
         <v>266</v>
       </c>
       <c r="D264">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6605,7 +6605,7 @@
         <v>267</v>
       </c>
       <c r="D265">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7249,7 +7249,7 @@
         <v>313</v>
       </c>
       <c r="D311">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7263,7 +7263,7 @@
         <v>314</v>
       </c>
       <c r="D312">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7277,7 +7277,7 @@
         <v>315</v>
       </c>
       <c r="D313">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7291,7 +7291,7 @@
         <v>316</v>
       </c>
       <c r="D314">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7305,7 +7305,7 @@
         <v>317</v>
       </c>
       <c r="D315">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7319,7 +7319,7 @@
         <v>318</v>
       </c>
       <c r="D316">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7333,7 +7333,7 @@
         <v>319</v>
       </c>
       <c r="D317">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7977,7 +7977,7 @@
         <v>365</v>
       </c>
       <c r="D363">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7991,7 +7991,7 @@
         <v>366</v>
       </c>
       <c r="D364">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8005,7 +8005,7 @@
         <v>367</v>
       </c>
       <c r="D365">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8019,7 +8019,7 @@
         <v>368</v>
       </c>
       <c r="D366">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8033,7 +8033,7 @@
         <v>369</v>
       </c>
       <c r="D367">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8047,7 +8047,7 @@
         <v>370</v>
       </c>
       <c r="D368">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8061,7 +8061,7 @@
         <v>371</v>
       </c>
       <c r="D369">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8705,7 +8705,7 @@
         <v>417</v>
       </c>
       <c r="D415">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8719,7 +8719,7 @@
         <v>418</v>
       </c>
       <c r="D416">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8733,7 +8733,7 @@
         <v>419</v>
       </c>
       <c r="D417">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -8747,7 +8747,7 @@
         <v>420</v>
       </c>
       <c r="D418">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -8761,7 +8761,7 @@
         <v>421</v>
       </c>
       <c r="D419">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -8775,7 +8775,7 @@
         <v>422</v>
       </c>
       <c r="D420">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -8789,7 +8789,7 @@
         <v>423</v>
       </c>
       <c r="D421">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9433,7 +9433,7 @@
         <v>469</v>
       </c>
       <c r="D467">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9447,7 +9447,7 @@
         <v>470</v>
       </c>
       <c r="D468">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9461,7 +9461,7 @@
         <v>471</v>
       </c>
       <c r="D469">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9475,7 +9475,7 @@
         <v>472</v>
       </c>
       <c r="D470">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9489,7 +9489,7 @@
         <v>473</v>
       </c>
       <c r="D471">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9503,7 +9503,7 @@
         <v>474</v>
       </c>
       <c r="D472">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9517,7 +9517,7 @@
         <v>475</v>
       </c>
       <c r="D473">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10161,7 +10161,7 @@
         <v>521</v>
       </c>
       <c r="D519">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10175,7 +10175,7 @@
         <v>522</v>
       </c>
       <c r="D520">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10189,7 +10189,7 @@
         <v>523</v>
       </c>
       <c r="D521">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10203,7 +10203,7 @@
         <v>524</v>
       </c>
       <c r="D522">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10217,7 +10217,7 @@
         <v>525</v>
       </c>
       <c r="D523">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10231,7 +10231,7 @@
         <v>526</v>
       </c>
       <c r="D524">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10245,7 +10245,7 @@
         <v>527</v>
       </c>
       <c r="D525">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10889,7 +10889,7 @@
         <v>573</v>
       </c>
       <c r="D571">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -10903,7 +10903,7 @@
         <v>574</v>
       </c>
       <c r="D572">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -10917,7 +10917,7 @@
         <v>575</v>
       </c>
       <c r="D573">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -10931,7 +10931,7 @@
         <v>576</v>
       </c>
       <c r="D574">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -10945,7 +10945,7 @@
         <v>577</v>
       </c>
       <c r="D575">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -10959,7 +10959,7 @@
         <v>578</v>
       </c>
       <c r="D576">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -10973,7 +10973,7 @@
         <v>579</v>
       </c>
       <c r="D577">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -10987,7 +10987,7 @@
         <v>580</v>
       </c>
       <c r="D578">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11631,7 +11631,7 @@
         <v>626</v>
       </c>
       <c r="D624">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11645,7 +11645,7 @@
         <v>627</v>
       </c>
       <c r="D625">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11659,7 +11659,7 @@
         <v>628</v>
       </c>
       <c r="D626">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11673,7 +11673,7 @@
         <v>629</v>
       </c>
       <c r="D627">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11687,7 +11687,7 @@
         <v>630</v>
       </c>
       <c r="D628">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11701,7 +11701,7 @@
         <v>631</v>
       </c>
       <c r="D629">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11715,7 +11715,7 @@
         <v>632</v>
       </c>
       <c r="D630">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -12359,7 +12359,7 @@
         <v>678</v>
       </c>
       <c r="D676">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12373,7 +12373,7 @@
         <v>679</v>
       </c>
       <c r="D677">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12387,7 +12387,7 @@
         <v>680</v>
       </c>
       <c r="D678">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12401,7 +12401,7 @@
         <v>681</v>
       </c>
       <c r="D679">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12415,7 +12415,7 @@
         <v>682</v>
       </c>
       <c r="D680">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12429,7 +12429,7 @@
         <v>683</v>
       </c>
       <c r="D681">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12443,7 +12443,7 @@
         <v>684</v>
       </c>
       <c r="D682">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -13087,7 +13087,7 @@
         <v>730</v>
       </c>
       <c r="D728">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13101,7 +13101,7 @@
         <v>731</v>
       </c>
       <c r="D729">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13115,7 +13115,7 @@
         <v>732</v>
       </c>
       <c r="D730">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13129,7 +13129,7 @@
         <v>733</v>
       </c>
       <c r="D731">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13143,7 +13143,7 @@
         <v>734</v>
       </c>
       <c r="D732">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13157,7 +13157,7 @@
         <v>735</v>
       </c>
       <c r="D733">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13171,7 +13171,7 @@
         <v>736</v>
       </c>
       <c r="D734">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13815,7 +13815,7 @@
         <v>782</v>
       </c>
       <c r="D780">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -13829,7 +13829,7 @@
         <v>783</v>
       </c>
       <c r="D781">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -13843,7 +13843,7 @@
         <v>784</v>
       </c>
       <c r="D782">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -13857,7 +13857,7 @@
         <v>785</v>
       </c>
       <c r="D783">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -13871,7 +13871,7 @@
         <v>786</v>
       </c>
       <c r="D784">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -13885,7 +13885,7 @@
         <v>787</v>
       </c>
       <c r="D785">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -13899,7 +13899,7 @@
         <v>788</v>
       </c>
       <c r="D786">
-        <v>8.646967651357356</v>
+        <v>8.79280488955489</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14109,7 +14109,7 @@
         <v>803</v>
       </c>
       <c r="D801">
-        <v>57.03478496451859</v>
+        <v>56.57040600912357</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14123,7 +14123,7 @@
         <v>804</v>
       </c>
       <c r="D802">
-        <v>62.58059496111045</v>
+        <v>62.49727657554863</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14137,7 +14137,7 @@
         <v>805</v>
       </c>
       <c r="D803">
-        <v>71.69760535869358</v>
+        <v>71.29277978162189</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14151,7 +14151,7 @@
         <v>806</v>
       </c>
       <c r="D804">
-        <v>73.97904219335875</v>
+        <v>74.20864166144314</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14165,7 +14165,7 @@
         <v>807</v>
       </c>
       <c r="D805">
-        <v>76.1336195197991</v>
+        <v>75.75617350133528</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14179,7 +14179,7 @@
         <v>808</v>
       </c>
       <c r="D806">
-        <v>69.5451984688922</v>
+        <v>69.23215617774684</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14193,7 +14193,7 @@
         <v>809</v>
       </c>
       <c r="D807">
-        <v>65.48814501434239</v>
+        <v>66.35583125096437</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14207,7 +14207,7 @@
         <v>810</v>
       </c>
       <c r="D808">
-        <v>66.4225272500118</v>
+        <v>67.28852804058688</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14221,7 +14221,7 @@
         <v>811</v>
       </c>
       <c r="D809">
-        <v>64.03620840335277</v>
+        <v>63.53466436362915</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14235,7 +14235,7 @@
         <v>812</v>
       </c>
       <c r="D810">
-        <v>61.85817823188949</v>
+        <v>61.39608875837782</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14249,7 +14249,7 @@
         <v>813</v>
       </c>
       <c r="D811">
-        <v>60.44814623697598</v>
+        <v>59.82297433277076</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14263,7 +14263,7 @@
         <v>814</v>
       </c>
       <c r="D812">
-        <v>58.91129319455056</v>
+        <v>59.99626800731946</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14277,7 +14277,7 @@
         <v>815</v>
       </c>
       <c r="D813">
-        <v>59.81015942309325</v>
+        <v>59.59798490639051</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14291,7 +14291,7 @@
         <v>816</v>
       </c>
       <c r="D814">
-        <v>60.67431865726294</v>
+        <v>60.0472300893551</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14305,7 +14305,7 @@
         <v>817</v>
       </c>
       <c r="D815">
-        <v>61.54400339993682</v>
+        <v>61.84368773323343</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14319,7 +14319,7 @@
         <v>818</v>
       </c>
       <c r="D816">
-        <v>62.37901063599286</v>
+        <v>61.92567201670877</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14333,7 +14333,7 @@
         <v>819</v>
       </c>
       <c r="D817">
-        <v>59.73418161014251</v>
+        <v>59.66780478916508</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14347,7 +14347,7 @@
         <v>820</v>
       </c>
       <c r="D818">
-        <v>57.10532002513312</v>
+        <v>57.16037791688875</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14361,7 +14361,7 @@
         <v>821</v>
       </c>
       <c r="D819">
-        <v>55.53225712257375</v>
+        <v>55.79615820617291</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14375,7 +14375,7 @@
         <v>822</v>
       </c>
       <c r="D820">
-        <v>55.1710781636664</v>
+        <v>54.64606831322272</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14389,7 +14389,7 @@
         <v>823</v>
       </c>
       <c r="D821">
-        <v>54.59128132978131</v>
+        <v>54.68376999536412</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14403,7 +14403,7 @@
         <v>824</v>
       </c>
       <c r="D822">
-        <v>50.76911314141653</v>
+        <v>50.86043815906314</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14417,7 +14417,7 @@
         <v>825</v>
       </c>
       <c r="D823">
-        <v>45.30115145136081</v>
+        <v>45.28851709401708</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14431,7 +14431,7 @@
         <v>826</v>
       </c>
       <c r="D824">
-        <v>38.79716532615989</v>
+        <v>38.80453135834753</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14445,7 +14445,7 @@
         <v>827</v>
       </c>
       <c r="D825">
-        <v>32.73673971861474</v>
+        <v>32.56216513878279</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14459,7 +14459,7 @@
         <v>828</v>
       </c>
       <c r="D826">
-        <v>27.5380258863943</v>
+        <v>27.68223375970436</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14473,7 +14473,7 @@
         <v>829</v>
       </c>
       <c r="D827">
-        <v>22.23751373218285</v>
+        <v>22.33114531198935</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14487,7 +14487,7 @@
         <v>830</v>
       </c>
       <c r="D828">
-        <v>18.89257931108279</v>
+        <v>18.69653137750623</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14501,7 +14501,7 @@
         <v>831</v>
       </c>
       <c r="D829">
-        <v>14.67726116105257</v>
+        <v>14.8529093132343</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14515,7 +14515,7 @@
         <v>832</v>
       </c>
       <c r="D830">
-        <v>11.80931891100816</v>
+        <v>11.93737215295884</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14529,7 +14529,7 @@
         <v>833</v>
       </c>
       <c r="D831">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14543,7 +14543,7 @@
         <v>834</v>
       </c>
       <c r="D832">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14557,7 +14557,7 @@
         <v>835</v>
       </c>
       <c r="D833">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14571,7 +14571,7 @@
         <v>836</v>
       </c>
       <c r="D834">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14585,7 +14585,7 @@
         <v>837</v>
       </c>
       <c r="D835">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14599,7 +14599,7 @@
         <v>838</v>
       </c>
       <c r="D836">
-        <v>10.15805966694125</v>
+        <v>10.23741880341881</v>
       </c>
     </row>
   </sheetData>
